--- a/Assets/Data/Tutorial.xlsx
+++ b/Assets/Data/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -47,16 +47,56 @@
     <t>Height</t>
   </si>
   <si>
+    <t>FocusX</t>
+  </si>
+  <si>
+    <t>FocusY</t>
+  </si>
+  <si>
+    <t>FocusWidth</t>
+  </si>
+  <si>
+    <t>FocusHeight</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Help</t>
   </si>
   <si>
-    <t>チュートリアル</t>
-  </si>
-  <si>
-    <t>チュートリアルのテスト</t>
+    <t>手引き</t>
+  </si>
+  <si>
+    <t>◇ゲームの目的
+Normは全6層からなるステージをクリアすることが目的です。
+マスを選択してステージを進め、各階層にいるボスを討伐することで次の階層に進めます。
+「探索」を選んでマスを選択してみましょう。
+※この内容はサイドメニューの「ヘルプ」コマンドで確認することができます。</t>
+  </si>
+  <si>
+    <t>「探索」からマス選択することができます。
+マスの種類はバトルとそれ以外に分けられます。</t>
+  </si>
+  <si>
+    <t>■魔物殲滅
+メンバーを選んで敵とバトルを行います。
+勝利するとバトルに参加したメンバーのLvが1上がります。
+敗北した場合でもペナルティはなくバトル前の状態に戻ります。</t>
+  </si>
+  <si>
+    <t>■編成
+バトルに参加するメンバーは最大5名まで編成できます。</t>
+  </si>
+  <si>
+    <t>バトルを開始してみましょう。</t>
+  </si>
+  <si>
+    <t>バトル</t>
+  </si>
+  <si>
+    <t>■バトル
+バトルは全てオートで進行します。</t>
   </si>
 </sst>
 </file>
@@ -66,8 +106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +119,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -93,16 +140,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,97 +225,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -215,8 +232,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,43 +271,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,139 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,50 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +530,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,151 +570,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1001,52 +1044,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="5.63636363636364" customWidth="1"/>
     <col min="4" max="6" width="7.81818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1072,9 +1127,241 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="J2">
+        <v>540</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1010</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>320</v>
+      </c>
+      <c r="H3">
+        <v>-272</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <v>320</v>
+      </c>
+      <c r="L3">
+        <v>-160</v>
+      </c>
+      <c r="M3">
+        <v>540</v>
+      </c>
+      <c r="N3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1020</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>-148</v>
+      </c>
+      <c r="M4">
+        <v>640</v>
+      </c>
+      <c r="N4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1030</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-240</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>760</v>
+      </c>
+      <c r="J5">
+        <v>112</v>
+      </c>
+      <c r="K5">
+        <v>-240</v>
+      </c>
+      <c r="L5">
+        <v>-32</v>
+      </c>
+      <c r="M5">
+        <v>584</v>
+      </c>
+      <c r="N5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1040</v>
+      </c>
+      <c r="B6">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>472</v>
+      </c>
+      <c r="H6">
+        <v>-284</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>392</v>
+      </c>
+      <c r="L6">
+        <v>-208</v>
+      </c>
+      <c r="M6">
+        <v>360</v>
+      </c>
+      <c r="N6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>480</v>
+      </c>
+      <c r="J7">
+        <v>112</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
     </row>
@@ -1087,10 +1374,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1104,61 +1391,104 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="130" spans="1:3">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="26" spans="1:3">
+      <c r="A3">
+        <v>1010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="52" spans="1:3">
+      <c r="A4">
+        <v>1020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="26" spans="1:3">
+      <c r="A5">
+        <v>1030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1040</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="26" spans="1:3">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Tutorial.xlsx
+++ b/Assets/Data/Tutorial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -79,10 +79,8 @@
 マスの種類はバトルとそれ以外に分けられます。</t>
   </si>
   <si>
-    <t>■魔物殲滅
-メンバーを選んで敵とバトルを行います。
-勝利するとバトルに参加したメンバーのLvが1上がります。
-敗北した場合でもペナルティはなくバトル前の状態に戻ります。</t>
+    <t>■マス選択
+バトルマスはメンバーを選んで敵とバトルを行います。</t>
   </si>
   <si>
     <t>■編成
@@ -96,7 +94,114 @@
   </si>
   <si>
     <t>■バトル
-バトルは全てオートで進行します。</t>
+バトルは全てオートで進行します。
+バトルは味方か敵全員のHpが0になるか
+150ターンを超えるまで自動で進みます。</t>
+  </si>
+  <si>
+    <t>リザルト</t>
+  </si>
+  <si>
+    <t>■リザルト
+バトルに勝利すると参加メンバーのLvがアップします。</t>
+  </si>
+  <si>
+    <t>■リザルト
+バトルの内容に応じてバトル評価を入手します。
+バトル評価に応じて(Nu)獲得量がアップします。</t>
+  </si>
+  <si>
+    <t>■リザルト
+その他に報酬がある場合は獲得します。</t>
+  </si>
+  <si>
+    <t>手引き２</t>
+  </si>
+  <si>
+    <t>■マス選択
+バトル以外のマスは魔法を入手したり仲間が加入します。</t>
+  </si>
+  <si>
+    <t>■トレジャー
+(Nu)を獲得します。
+(Nu)はキャラクターのLvを上げたり魔法習得に使用します。</t>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
+    <t>(Nu)を入手しました！
+(Nu)を使用してキャラクターのLvアップや魔法習得できます。</t>
+  </si>
+  <si>
+    <t>Lvアップ</t>
+  </si>
+  <si>
+    <t>■Lvアップ
+(Nu)を消費してメンバーのLvを上げることができます。</t>
+  </si>
+  <si>
+    <t>魔法習得</t>
+  </si>
+  <si>
+    <t>■魔法習得
+(Nu)を消費してメンバーに魔法を習得させることができます。</t>
+  </si>
+  <si>
+    <t>バトルターゲット</t>
+  </si>
+  <si>
+    <t>■バトルターゲット
+キャラクターは基本的に正面の相手を攻撃対象にします。</t>
+  </si>
+  <si>
+    <t>■バトルターゲット
+先に倒したい敵が正面にいない時は
+攻撃したい対象を選んで
+攻撃優先対象を変えることができます。</t>
+  </si>
+  <si>
+    <t>初めてバトル敗北</t>
+  </si>
+  <si>
+    <t>■バトル敗北
+敗北した場合でもペナルティはありません。
+同じ編成で再戦するか、別のマスを選び直して先に進むこともできます。</t>
+  </si>
+  <si>
+    <t>2回目のバトル敗北</t>
+  </si>
+  <si>
+    <t>■アドバイス
+バトルに勝利できない時は以下を確認し戦略を変えてみましょう。
+・キャラクターのLvをアップしてみる
+・キャラクターに魔法を習得させる
+・バトルの攻撃優先対象を変えてみる</t>
+  </si>
+  <si>
+    <t>仲間加入</t>
+  </si>
+  <si>
+    <t>■仲間加入
+候補の中から仲間を1名選択して加入します。</t>
+  </si>
+  <si>
+    <t>■仲間加入
+仲間になるキャラクターを選択します。
+ステータスや習得魔法、その他の特徴を確認して
+自分好みのキャラクターを選んでみましょう！</t>
+  </si>
+  <si>
+    <t>■仲間加入
+ステータスや特徴は「術者一覧」から確認できます。</t>
+  </si>
+  <si>
+    <t>バトル評価値</t>
+  </si>
+  <si>
+    <t>■バトル評価値
+バトル勝利時に獲得したバトル評価の累積値です。
+この値が高いとバトル勝利時に獲得する(Nu)にボーナス補正が入ります。</t>
   </si>
 </sst>
 </file>
@@ -105,8 +210,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -119,6 +224,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -126,15 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,8 +259,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,26 +282,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,14 +322,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -234,9 +331,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +352,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -271,49 +376,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,121 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,10 +587,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -534,15 +637,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -562,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,13 +1149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="5.63636363636364" customWidth="1"/>
@@ -1130,7 +1235,7 @@
         <v>960</v>
       </c>
       <c r="J2">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1171,10 +1276,10 @@
         <v>-272</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K3">
         <v>320</v>
@@ -1183,10 +1288,10 @@
         <v>-160</v>
       </c>
       <c r="M3">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="N3">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1224,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-148</v>
+        <v>-108</v>
       </c>
       <c r="M4">
-        <v>640</v>
+        <v>552</v>
       </c>
       <c r="N4">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1318,7 +1423,7 @@
         <v>360</v>
       </c>
       <c r="N6">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1350,19 +1455,723 @@
         <v>480</v>
       </c>
       <c r="J7">
+        <v>168</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>616</v>
+      </c>
+      <c r="J8">
         <v>112</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>3010</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9">
+        <v>344</v>
+      </c>
+      <c r="L9">
+        <v>-40</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>3020</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="H10">
+        <v>-24</v>
+      </c>
+      <c r="I10">
+        <v>400</v>
+      </c>
+      <c r="J10">
+        <v>112</v>
+      </c>
+      <c r="K10">
+        <v>344</v>
+      </c>
+      <c r="L10">
+        <v>-136</v>
+      </c>
+      <c r="M10">
+        <v>416</v>
+      </c>
+      <c r="N10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>176</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>568</v>
+      </c>
+      <c r="N11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>4010</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>176</v>
+      </c>
+      <c r="I12">
+        <v>400</v>
+      </c>
+      <c r="J12">
+        <v>200</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>600</v>
+      </c>
+      <c r="N12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>540</v>
+      </c>
+      <c r="J13">
+        <v>140</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>5010</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-272</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>320</v>
+      </c>
+      <c r="J14">
+        <v>72</v>
+      </c>
+      <c r="K14">
+        <v>-160</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>572</v>
+      </c>
+      <c r="N14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>5020</v>
+      </c>
+      <c r="B15">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-44</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>176</v>
+      </c>
+      <c r="J15">
+        <v>72</v>
+      </c>
+      <c r="K15">
+        <v>-160</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>624</v>
+      </c>
+      <c r="N15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>6000</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>240</v>
+      </c>
+      <c r="I16">
+        <v>1280</v>
+      </c>
+      <c r="J16">
+        <v>160</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>104</v>
+      </c>
+      <c r="M16">
+        <v>568</v>
+      </c>
+      <c r="N16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>6010</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>280</v>
+      </c>
+      <c r="J17">
+        <v>264</v>
+      </c>
+      <c r="K17">
+        <v>400</v>
+      </c>
+      <c r="L17">
+        <v>-144</v>
+      </c>
+      <c r="M17">
+        <v>424</v>
+      </c>
+      <c r="N17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>7000</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>700</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>640</v>
+      </c>
+      <c r="J18">
+        <v>160</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>7010</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>800</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>720</v>
+      </c>
+      <c r="J19">
+        <v>192</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>8000</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>900</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>176</v>
+      </c>
+      <c r="I20">
+        <v>400</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>480</v>
+      </c>
+      <c r="N20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>9000</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>556</v>
+      </c>
+      <c r="J21">
+        <v>164</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>9010</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>540</v>
+      </c>
+      <c r="H22">
+        <v>316</v>
+      </c>
+      <c r="I22">
+        <v>160</v>
+      </c>
+      <c r="J22">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <v>320</v>
+      </c>
+      <c r="L22">
+        <v>240</v>
+      </c>
+      <c r="M22">
+        <v>540</v>
+      </c>
+      <c r="N22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1100</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>160</v>
+      </c>
+      <c r="H23">
+        <v>320</v>
+      </c>
+      <c r="I23">
+        <v>320</v>
+      </c>
+      <c r="J23">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>320</v>
+      </c>
+      <c r="L23">
+        <v>208</v>
+      </c>
+      <c r="M23">
+        <v>540</v>
+      </c>
+      <c r="N23">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1374,15 +2183,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="62.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1419,7 +2228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="52" spans="1:3">
+    <row r="4" ht="26" spans="1:3">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -1437,7 +2246,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1448,47 +2257,196 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="26" spans="1:3">
+    <row r="7" ht="52" spans="1:3">
       <c r="A7">
         <v>2000</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="2"/>
+    <row r="8" ht="26" spans="1:3">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="39" spans="1:3">
+      <c r="A9">
+        <v>3010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="26" spans="1:3">
+      <c r="A10">
+        <v>3020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="26" spans="1:3">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="39" spans="1:3">
+      <c r="A12">
+        <v>4010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="26" spans="1:3">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="26" spans="1:3">
+      <c r="A14">
+        <v>5010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="26" spans="1:3">
+      <c r="A15">
+        <v>5020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" ht="26" spans="1:3">
+      <c r="A16">
+        <v>6000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" ht="52" spans="1:3">
+      <c r="A17">
+        <v>6010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" ht="39" spans="1:3">
+      <c r="A18">
+        <v>7000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="65" spans="1:3">
+      <c r="A19">
+        <v>7010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" ht="26" spans="1:3">
+      <c r="A20">
+        <v>8000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="52" spans="1:3">
+      <c r="A21">
+        <v>9000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="26" spans="1:3">
+      <c r="A22">
+        <v>9010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="39" spans="1:3">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Tutorial.xlsx
+++ b/Assets/Data/Tutorial.xlsx
@@ -156,9 +156,9 @@
   </si>
   <si>
     <t>■バトルターゲット
-先に倒したい敵が正面にいない時は
+優先して倒したい敵が正面にいない時は
 攻撃したい対象を選んで
-攻撃優先対象を変えることができます。</t>
+優先対象を変えることができます。</t>
   </si>
   <si>
     <t>初めてバトル敗北</t>
@@ -218,88 +218,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,17 +239,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,9 +306,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,7 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,181 +376,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +567,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,15 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -605,39 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +632,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,7 +675,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,7 +684,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,136 +693,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1152,7 +1149,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1163,34 +1160,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1317,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1358,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-240</v>
+        <v>-520</v>
       </c>
       <c r="H5">
         <v>80</v>
       </c>
       <c r="I5">
-        <v>760</v>
+        <v>224</v>
       </c>
       <c r="J5">
         <v>112</v>
@@ -1528,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1572,7 +1569,7 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1599,7 +1596,7 @@
         <v>416</v>
       </c>
       <c r="N10">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1616,7 +1613,7 @@
         <v>300</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1628,10 +1625,10 @@
         <v>176</v>
       </c>
       <c r="I11">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="J11">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1672,10 +1669,10 @@
         <v>176</v>
       </c>
       <c r="I12">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1695,7 +1692,7 @@
         <v>5000</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1739,7 +1736,7 @@
         <v>5010</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1751,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G14">
         <v>-272</v>
@@ -1775,7 +1772,7 @@
         <v>572</v>
       </c>
       <c r="N14">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1819,7 +1816,7 @@
         <v>624</v>
       </c>
       <c r="N15">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1836,10 +1833,10 @@
         <v>600</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1863,7 +1860,7 @@
         <v>568</v>
       </c>
       <c r="N16">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1883,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="G17">
         <v>500</v>
@@ -2021,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="I20">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="J20">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="M20">
         <v>480</v>
@@ -2121,7 +2118,7 @@
         <v>320</v>
       </c>
       <c r="L22">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M22">
         <v>540</v>
@@ -2144,7 +2141,7 @@
         <v>1100</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2185,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2411,7 +2408,7 @@
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2422,7 +2419,7 @@
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2433,7 +2430,7 @@
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2444,7 +2441,7 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Assets/Data/Tutorial.xlsx
+++ b/Assets/Data/Tutorial.xlsx
@@ -210,8 +210,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -223,24 +223,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +252,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,15 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,21 +321,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -313,10 +328,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,6 +344,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -337,31 +360,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,19 +376,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +496,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,102 +550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,30 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,17 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +594,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -611,21 +616,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,22 +638,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,16 +675,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,127 +693,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1657,7 +1657,7 @@
         <v>300</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2182,7 +2182,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Tutorial.xlsx
+++ b/Assets/Data/Tutorial.xlsx
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,11 +223,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,47 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,16 +268,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,19 +296,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,12 +321,51 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,85 +376,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,97 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,15 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,17 +581,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,15 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +620,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1358,7 +1358,7 @@
         <v>-520</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I5">
         <v>224</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="H6">
-        <v>-284</v>
+        <v>-272</v>
       </c>
       <c r="I6">
         <v>200</v>
@@ -1414,7 +1414,7 @@
         <v>392</v>
       </c>
       <c r="L6">
-        <v>-208</v>
+        <v>-192</v>
       </c>
       <c r="M6">
         <v>360</v>
@@ -1754,7 +1754,7 @@
         <v>-272</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>320</v>
@@ -1766,13 +1766,13 @@
         <v>-160</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M14">
         <v>572</v>
       </c>
       <c r="N14">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1798,7 +1798,7 @@
         <v>-44</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I15">
         <v>176</v>
@@ -1810,13 +1810,13 @@
         <v>-160</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M15">
         <v>624</v>
       </c>
       <c r="N15">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2182,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
